--- a/results/phase3/reports_cr_400/config_FT_Orig_cr_281124.xlsx
+++ b/results/phase3/reports_cr_400/config_FT_Orig_cr_281124.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Params" sheetId="1" state="visible" r:id="rId2"/>
@@ -293,7 +293,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -379,7 +379,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -387,7 +387,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -419,7 +419,7 @@
   </sheetPr>
   <dimension ref="A1:I433"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
